--- a/excels/Cardiff.xlsx
+++ b/excels/Cardiff.xlsx
@@ -3733,7 +3733,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1810.855789087346</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1810.855789087346</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1810.855789087346</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1810.855789087346</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1810.855789087346</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1810.855789087346</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1810.855789087346</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2043.751530308369</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>2043.751530308369</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2043.751530308369</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2043.751530308369</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2375.30769768682</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2375.30769768682</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>2369.312055045682</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>2004.156926114675</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>2004.156926114675</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>2083.021902470727</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2083.021902470727</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>2166.039564668802</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>2166.039564668802</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1540.450351000005</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1540.450351000005</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1756.737546845783</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>2382.273054441167</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>2382.273054441167</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>2382.273054441167</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>2382.273054441167</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>2382.273054441167</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>2382.273054441167</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>2382.273054441167</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>2382.273054441167</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>2382.273054441167</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>2382.273054441167</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>2382.273054441167</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>2382.273054441167</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>2382.273054441167</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>2592.734319101804</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>2913.680464004777</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>2913.680464004777</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>2627.07489890376</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>2014.091157149963</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>2014.091157149963</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>2014.091157149963</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>2014.091157149963</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>2014.091157149963</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>2014.091157149963</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>2014.091157149963</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>2014.091157149963</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>3752.393357877741</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>2014.091157149963</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>4854.411063051452</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>2072.721337559932</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>2072.721337559932</v>
@@ -5270,7 +5270,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>2072.721337559932</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>2072.721337559932</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>3010.291442576153</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>1759.901910258869</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>1886.281028369047</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>5231.101654371922</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>5231.101654371922</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>3244.858979849855</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>1886.281028369047</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>2347.22828214073</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>2807.005024332261</v>
@@ -5589,7 +5589,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>2807.005024332261</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>2807.005024332261</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>2894.893383999724</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>3067.056975078634</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>3067.056975078634</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>3067.056975078634</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>3467.876982444998</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>4771.590232281121</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>3467.876982444998</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>3067.056975078634</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>2605.991017071638</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>2807.005024332261</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>2807.005024332261</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>5348.499314622754</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>2820.471449043489</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>3414.508636092913</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>3178.038117927338</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>2801.89613255353</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>2801.89613255353</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>2801.89613255353</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>4935.333654920531</v>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>3178.038117927338</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>3178.038117927338</v>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>2801.89613255353</v>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>4935.333654920531</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>2801.89613255353</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>4935.333654920531</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>5221.536628945801</v>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>5181.135945405867</v>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>2801.89613255353</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>4935.333654920531</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>3178.038117927338</v>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>4935.333654920531</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>4935.333654920531</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>2801.89613255353</v>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>2801.89613255353</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>2801.89613255353</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>4619.321024419298</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>5729.59228978288</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>3661.01329500539</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>5729.59228978288</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>5141.274568195355</v>
@@ -6807,7 +6807,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>4619.321024419298</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>5729.59228978288</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>4855.348970251716</v>
@@ -6894,7 +6894,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>4619.321024419298</v>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>4855.348970251716</v>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>4855.348970251716</v>
@@ -6981,7 +6981,7 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>5729.59228978288</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>4855.348970251716</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>5729.59228978288</v>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>6057.898099518112</v>
@@ -7097,7 +7097,7 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>8063.363112964065</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>4619.321024419298</v>
@@ -7155,7 +7155,7 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>6615.509231685527</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>6615.509231685527</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>2567.61275651091</v>
@@ -7242,7 +7242,7 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>4619.321024419298</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>6057.898099518112</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>4855.348970251716</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>4042.12030970816</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>5729.59228978288</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>1371.611253196931</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>1424.783799880882</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>7834.063959755659</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>6057.898099518112</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>1500.609508329947</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>4855.348970251716</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>4619.321024419298</v>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>2544.157236450269</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>5729.59228978288</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>6057.898099518112</v>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>1739.130434782609</v>
@@ -7706,7 +7706,7 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>5729.59228978288</v>
@@ -7735,7 +7735,7 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>4042.12030970816</v>
@@ -7764,7 +7764,7 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>5729.59228978288</v>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>1739.130434782609</v>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>1739.130434782609</v>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>4855.348970251716</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>1814.968247116879</v>
@@ -7909,7 +7909,7 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>2437.300159811445</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>2004.156926114675</v>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>4854.411063051452</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>4613.876690530218</v>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>2543.414145045335</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="1">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>2695.79947603421</v>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="1">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>5820.062537224539</v>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="1">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>3974.508636092912</v>
@@ -8141,7 +8141,7 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B164">
         <v>4619.321024419298</v>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>5729.59228978288</v>
@@ -8199,7 +8199,7 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="1">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>6114.86301369863</v>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B167">
         <v>6114.86301369863</v>
